--- a/Primera Entrega/Clase 8- Memoria/Alumnos/gonzalez_raul/Actividad video juegos.xlsx
+++ b/Primera Entrega/Clase 8- Memoria/Alumnos/gonzalez_raul/Actividad video juegos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b23a0391c6a1def9/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TECH DEVELOPER\GIT HUB\mochila\MochilaC10822FT\Primera Entrega\Clase 8- Memoria\Alumnos\gonzalez_raul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4116A8CB-C2FE-47BF-B0E4-EAD014472EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E9FCDF-A6D2-45B8-B7E2-A04C1E735018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7B957BFA-B309-4E3C-86B9-E192AB174FE1}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <t>Total en TB</t>
   </si>
   <si>
-    <t>En total podemos guardar los 13 juegos resaltados en verde que pesarian en total 986,800954</t>
+    <t>En total podemos guardar los 13 juegos resaltados en verde que pesarian en total 986,800954 GB</t>
   </si>
 </sst>
 </file>
@@ -163,8 +163,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -246,7 +246,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -257,7 +257,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F81FB6F-C26F-471F-9256-BB6F1DB53977}">
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
@@ -736,7 +736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -804,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -838,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -876,7 +876,7 @@
         <v>986.80095400000005</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
@@ -948,8 +948,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F17">
     <sortCondition ref="E3:E17"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>